--- a/Address.xlsx
+++ b/Address.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANI-LAPTOP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANI-LAPTOP\Desktop\CASE Transport Management System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1068F24-01EB-4751-AD83-86963CE11EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E12A5-68AA-478E-A16B-5420E09B847C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="383">
   <si>
     <t>Address</t>
   </si>
@@ -1042,6 +1042,138 @@
   </si>
   <si>
     <t>0331-9929878</t>
+  </si>
+  <si>
+    <t>0331-9929987</t>
+  </si>
+  <si>
+    <t>0331-9929772</t>
+  </si>
+  <si>
+    <t>0331-9929898</t>
+  </si>
+  <si>
+    <t>0331-9929901</t>
+  </si>
+  <si>
+    <t>0331-9929966</t>
+  </si>
+  <si>
+    <t>0331-9929885</t>
+  </si>
+  <si>
+    <t>0331-9929931</t>
+  </si>
+  <si>
+    <t>0331-9929970</t>
+  </si>
+  <si>
+    <t>0331-9929906</t>
+  </si>
+  <si>
+    <t>0331-9929985</t>
+  </si>
+  <si>
+    <t>0331-9929963</t>
+  </si>
+  <si>
+    <t>0331-9929994</t>
+  </si>
+  <si>
+    <t>0331-9929915</t>
+  </si>
+  <si>
+    <t>0331-9929888</t>
+  </si>
+  <si>
+    <t>0331-9929962</t>
+  </si>
+  <si>
+    <t>0331-9929993</t>
+  </si>
+  <si>
+    <t>0331-9929992</t>
+  </si>
+  <si>
+    <t>0331-9929968</t>
+  </si>
+  <si>
+    <t>0331-9929951</t>
+  </si>
+  <si>
+    <t>0331-9929953</t>
+  </si>
+  <si>
+    <t>0331-9929778</t>
+  </si>
+  <si>
+    <t>0331-9929964</t>
+  </si>
+  <si>
+    <t>0331-9929934</t>
+  </si>
+  <si>
+    <t>0331-9929879</t>
+  </si>
+  <si>
+    <t>0331-9929997</t>
+  </si>
+  <si>
+    <t>0331-9929900</t>
+  </si>
+  <si>
+    <t>0331-9929977</t>
+  </si>
+  <si>
+    <t>0331-9929941</t>
+  </si>
+  <si>
+    <t>0331-9929936</t>
+  </si>
+  <si>
+    <t>0331-9929980</t>
+  </si>
+  <si>
+    <t>0331-9929982</t>
+  </si>
+  <si>
+    <t>0331-9929998</t>
+  </si>
+  <si>
+    <t>0331-9929880</t>
+  </si>
+  <si>
+    <t>0331-9929973</t>
+  </si>
+  <si>
+    <t>0331-9929988</t>
+  </si>
+  <si>
+    <t>0331-9929946</t>
+  </si>
+  <si>
+    <t>0331-9929928</t>
+  </si>
+  <si>
+    <t>0331-9929893</t>
+  </si>
+  <si>
+    <t>0331-9929929</t>
+  </si>
+  <si>
+    <t>0331-9929945</t>
+  </si>
+  <si>
+    <t>0331-9929975</t>
+  </si>
+  <si>
+    <t>0331-9929989</t>
+  </si>
+  <si>
+    <t>0331-9929955</t>
+  </si>
+  <si>
+    <t>2030-0175</t>
   </si>
 </sst>
 </file>
@@ -1379,9 +1511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3718,6 +3852,6420 @@
         <v>238</v>
       </c>
     </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F102" t="s">
+        <v>239</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
+        <v>240</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>57</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" t="s">
+        <v>241</v>
+      </c>
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" t="s">
+        <v>242</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>244</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>55</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>36</v>
+      </c>
+      <c r="F108" t="s">
+        <v>245</v>
+      </c>
+      <c r="G108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110" t="s">
+        <v>247</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>41</v>
+      </c>
+      <c r="F111" t="s">
+        <v>248</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>153</v>
+      </c>
+      <c r="F112" t="s">
+        <v>249</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>53</v>
+      </c>
+      <c r="F113" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" t="s">
+        <v>251</v>
+      </c>
+      <c r="G114" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s">
+        <v>252</v>
+      </c>
+      <c r="G115" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>253</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s">
+        <v>254</v>
+      </c>
+      <c r="G117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" t="s">
+        <v>255</v>
+      </c>
+      <c r="G118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>54</v>
+      </c>
+      <c r="F119" t="s">
+        <v>256</v>
+      </c>
+      <c r="G119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>257</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>154</v>
+      </c>
+      <c r="F121" t="s">
+        <v>258</v>
+      </c>
+      <c r="G121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F122" t="s">
+        <v>259</v>
+      </c>
+      <c r="G122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>49</v>
+      </c>
+      <c r="F123" t="s">
+        <v>260</v>
+      </c>
+      <c r="G123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" t="s">
+        <v>261</v>
+      </c>
+      <c r="G124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>54</v>
+      </c>
+      <c r="F125" t="s">
+        <v>262</v>
+      </c>
+      <c r="G125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" t="s">
+        <v>263</v>
+      </c>
+      <c r="G126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" t="s">
+        <v>264</v>
+      </c>
+      <c r="G127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" t="s">
+        <v>265</v>
+      </c>
+      <c r="G128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" t="s">
+        <v>266</v>
+      </c>
+      <c r="G129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>59</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>41</v>
+      </c>
+      <c r="F130" t="s">
+        <v>267</v>
+      </c>
+      <c r="G130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>55</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>153</v>
+      </c>
+      <c r="F131" t="s">
+        <v>268</v>
+      </c>
+      <c r="G131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>154</v>
+      </c>
+      <c r="F132" t="s">
+        <v>269</v>
+      </c>
+      <c r="G132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>48</v>
+      </c>
+      <c r="F133" t="s">
+        <v>270</v>
+      </c>
+      <c r="G133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>55</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>168</v>
+      </c>
+      <c r="F134" t="s">
+        <v>271</v>
+      </c>
+      <c r="G134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>170</v>
+      </c>
+      <c r="F135" t="s">
+        <v>272</v>
+      </c>
+      <c r="G135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>49</v>
+      </c>
+      <c r="F136" t="s">
+        <v>273</v>
+      </c>
+      <c r="G136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" t="s">
+        <v>274</v>
+      </c>
+      <c r="G137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>55</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>45</v>
+      </c>
+      <c r="F138" t="s">
+        <v>275</v>
+      </c>
+      <c r="G138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>49</v>
+      </c>
+      <c r="F139" t="s">
+        <v>276</v>
+      </c>
+      <c r="G139" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>37</v>
+      </c>
+      <c r="F140" t="s">
+        <v>277</v>
+      </c>
+      <c r="G140" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>57</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>53</v>
+      </c>
+      <c r="F141" t="s">
+        <v>278</v>
+      </c>
+      <c r="G141" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>40</v>
+      </c>
+      <c r="F142" t="s">
+        <v>279</v>
+      </c>
+      <c r="G142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>57</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>36</v>
+      </c>
+      <c r="F143" t="s">
+        <v>280</v>
+      </c>
+      <c r="G143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>55</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" t="s">
+        <v>281</v>
+      </c>
+      <c r="G144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>154</v>
+      </c>
+      <c r="F145" t="s">
+        <v>282</v>
+      </c>
+      <c r="G145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" t="s">
+        <v>283</v>
+      </c>
+      <c r="G146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" t="s">
+        <v>284</v>
+      </c>
+      <c r="G147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>58</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" t="s">
+        <v>285</v>
+      </c>
+      <c r="G148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>59</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>286</v>
+      </c>
+      <c r="G149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>56</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>54</v>
+      </c>
+      <c r="F150" t="s">
+        <v>287</v>
+      </c>
+      <c r="G150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>56</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>37</v>
+      </c>
+      <c r="F151" t="s">
+        <v>288</v>
+      </c>
+      <c r="G151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>59</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>49</v>
+      </c>
+      <c r="F152" t="s">
+        <v>289</v>
+      </c>
+      <c r="G152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>170</v>
+      </c>
+      <c r="F153" t="s">
+        <v>290</v>
+      </c>
+      <c r="G153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>53</v>
+      </c>
+      <c r="F154" t="s">
+        <v>291</v>
+      </c>
+      <c r="G154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" t="s">
+        <v>292</v>
+      </c>
+      <c r="G155" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>36</v>
+      </c>
+      <c r="F156" t="s">
+        <v>293</v>
+      </c>
+      <c r="G156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" t="s">
+        <v>294</v>
+      </c>
+      <c r="G157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>37</v>
+      </c>
+      <c r="F158" t="s">
+        <v>295</v>
+      </c>
+      <c r="G158" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>56</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" t="s">
+        <v>296</v>
+      </c>
+      <c r="G159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" t="s">
+        <v>297</v>
+      </c>
+      <c r="G160" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>56</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>36</v>
+      </c>
+      <c r="F161" t="s">
+        <v>298</v>
+      </c>
+      <c r="G161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>55</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>154</v>
+      </c>
+      <c r="F162" t="s">
+        <v>299</v>
+      </c>
+      <c r="G162" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>58</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>37</v>
+      </c>
+      <c r="F163" t="s">
+        <v>300</v>
+      </c>
+      <c r="G163" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164" t="s">
+        <v>301</v>
+      </c>
+      <c r="G164" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" t="s">
+        <v>302</v>
+      </c>
+      <c r="G165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>47</v>
+      </c>
+      <c r="F166" t="s">
+        <v>303</v>
+      </c>
+      <c r="G166" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="s">
+        <v>50</v>
+      </c>
+      <c r="F167" t="s">
+        <v>304</v>
+      </c>
+      <c r="G167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="s">
+        <v>49</v>
+      </c>
+      <c r="F168" t="s">
+        <v>305</v>
+      </c>
+      <c r="G168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>154</v>
+      </c>
+      <c r="F169" t="s">
+        <v>306</v>
+      </c>
+      <c r="G169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>58</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>154</v>
+      </c>
+      <c r="F170" t="s">
+        <v>307</v>
+      </c>
+      <c r="G170" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>40</v>
+      </c>
+      <c r="F171" t="s">
+        <v>308</v>
+      </c>
+      <c r="G171" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>153</v>
+      </c>
+      <c r="F172" t="s">
+        <v>309</v>
+      </c>
+      <c r="G172" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>57</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>45</v>
+      </c>
+      <c r="F173" t="s">
+        <v>310</v>
+      </c>
+      <c r="G173" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>55</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" t="s">
+        <v>311</v>
+      </c>
+      <c r="G174" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>55</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>53</v>
+      </c>
+      <c r="F175" t="s">
+        <v>312</v>
+      </c>
+      <c r="G175" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>58</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>37</v>
+      </c>
+      <c r="F176" t="s">
+        <v>313</v>
+      </c>
+      <c r="G176" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>58</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>170</v>
+      </c>
+      <c r="F177" t="s">
+        <v>314</v>
+      </c>
+      <c r="G177" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>49</v>
+      </c>
+      <c r="F178" t="s">
+        <v>315</v>
+      </c>
+      <c r="G178" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>56</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" t="s">
+        <v>316</v>
+      </c>
+      <c r="G179" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>40</v>
+      </c>
+      <c r="F180" t="s">
+        <v>317</v>
+      </c>
+      <c r="G180" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>56</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>217</v>
+      </c>
+      <c r="F181" t="s">
+        <v>318</v>
+      </c>
+      <c r="G181" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>36</v>
+      </c>
+      <c r="F182" t="s">
+        <v>319</v>
+      </c>
+      <c r="G182" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>55</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>217</v>
+      </c>
+      <c r="F183" t="s">
+        <v>320</v>
+      </c>
+      <c r="G183" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>57</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>168</v>
+      </c>
+      <c r="F184" t="s">
+        <v>321</v>
+      </c>
+      <c r="G184" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>154</v>
+      </c>
+      <c r="F185" t="s">
+        <v>322</v>
+      </c>
+      <c r="G185" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>56</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>39</v>
+      </c>
+      <c r="F186" t="s">
+        <v>323</v>
+      </c>
+      <c r="G186" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>36</v>
+      </c>
+      <c r="F187" t="s">
+        <v>324</v>
+      </c>
+      <c r="G187" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>56</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>168</v>
+      </c>
+      <c r="F188" t="s">
+        <v>325</v>
+      </c>
+      <c r="G188" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>47</v>
+      </c>
+      <c r="F189" t="s">
+        <v>326</v>
+      </c>
+      <c r="G189" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>45</v>
+      </c>
+      <c r="F190" t="s">
+        <v>327</v>
+      </c>
+      <c r="G190" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>55</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>48</v>
+      </c>
+      <c r="F191" t="s">
+        <v>328</v>
+      </c>
+      <c r="G191" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" t="s">
+        <v>329</v>
+      </c>
+      <c r="G192" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>51</v>
+      </c>
+      <c r="F193" t="s">
+        <v>330</v>
+      </c>
+      <c r="G193" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>56</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>36</v>
+      </c>
+      <c r="F194" t="s">
+        <v>331</v>
+      </c>
+      <c r="G194" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+      <c r="E195" t="s">
+        <v>170</v>
+      </c>
+      <c r="F195" t="s">
+        <v>332</v>
+      </c>
+      <c r="G195" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>57</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" t="s">
+        <v>41</v>
+      </c>
+      <c r="F196" t="s">
+        <v>333</v>
+      </c>
+      <c r="G196" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>57</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>168</v>
+      </c>
+      <c r="F197" t="s">
+        <v>334</v>
+      </c>
+      <c r="G197" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>59</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" t="s">
+        <v>335</v>
+      </c>
+      <c r="G198" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199" t="s">
+        <v>336</v>
+      </c>
+      <c r="G199" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>57</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>168</v>
+      </c>
+      <c r="F200" t="s">
+        <v>337</v>
+      </c>
+      <c r="G200" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>58</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>217</v>
+      </c>
+      <c r="F201" t="s">
+        <v>338</v>
+      </c>
+      <c r="G201" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>55</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202" t="s">
+        <v>239</v>
+      </c>
+      <c r="G202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>56</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>154</v>
+      </c>
+      <c r="F203" t="s">
+        <v>339</v>
+      </c>
+      <c r="G203" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>59</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" t="s">
+        <v>43</v>
+      </c>
+      <c r="F204" t="s">
+        <v>340</v>
+      </c>
+      <c r="G204" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>57</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E205" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" t="s">
+        <v>341</v>
+      </c>
+      <c r="G205" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>58</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" t="s">
+        <v>36</v>
+      </c>
+      <c r="F206" t="s">
+        <v>293</v>
+      </c>
+      <c r="G206" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>56</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>39</v>
+      </c>
+      <c r="F207" t="s">
+        <v>323</v>
+      </c>
+      <c r="G207" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>56</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>153</v>
+      </c>
+      <c r="F208" t="s">
+        <v>313</v>
+      </c>
+      <c r="G208" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>55</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>43</v>
+      </c>
+      <c r="F209" t="s">
+        <v>342</v>
+      </c>
+      <c r="G209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>59</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
+        <v>38</v>
+      </c>
+      <c r="F210" t="s">
+        <v>343</v>
+      </c>
+      <c r="G210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>59</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" t="s">
+        <v>54</v>
+      </c>
+      <c r="F211" t="s">
+        <v>344</v>
+      </c>
+      <c r="G211" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>56</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" t="s">
+        <v>38</v>
+      </c>
+      <c r="F212" t="s">
+        <v>345</v>
+      </c>
+      <c r="G212" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>57</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" t="s">
+        <v>153</v>
+      </c>
+      <c r="F213" t="s">
+        <v>304</v>
+      </c>
+      <c r="G213" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>55</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214" t="s">
+        <v>288</v>
+      </c>
+      <c r="G214" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>56</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>40</v>
+      </c>
+      <c r="F215" t="s">
+        <v>346</v>
+      </c>
+      <c r="G215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>55</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" t="s">
+        <v>43</v>
+      </c>
+      <c r="F216" t="s">
+        <v>347</v>
+      </c>
+      <c r="G216" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>56</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>41</v>
+      </c>
+      <c r="F217" t="s">
+        <v>348</v>
+      </c>
+      <c r="G217" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>57</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>48</v>
+      </c>
+      <c r="F218" t="s">
+        <v>240</v>
+      </c>
+      <c r="G218" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>58</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>40</v>
+      </c>
+      <c r="F219" t="s">
+        <v>329</v>
+      </c>
+      <c r="G219" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>59</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" t="s">
+        <v>153</v>
+      </c>
+      <c r="F220" t="s">
+        <v>243</v>
+      </c>
+      <c r="G220" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>56</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" t="s">
+        <v>39</v>
+      </c>
+      <c r="F221" t="s">
+        <v>270</v>
+      </c>
+      <c r="G221" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>58</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" t="s">
+        <v>154</v>
+      </c>
+      <c r="F222" t="s">
+        <v>349</v>
+      </c>
+      <c r="G222" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>56</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223" t="s">
+        <v>40</v>
+      </c>
+      <c r="F223" t="s">
+        <v>350</v>
+      </c>
+      <c r="G223" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>58</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" t="s">
+        <v>43</v>
+      </c>
+      <c r="F224" t="s">
+        <v>351</v>
+      </c>
+      <c r="G224" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>58</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" t="s">
+        <v>40</v>
+      </c>
+      <c r="F225" t="s">
+        <v>352</v>
+      </c>
+      <c r="G225" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>56</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>52</v>
+      </c>
+      <c r="F226" t="s">
+        <v>315</v>
+      </c>
+      <c r="G226" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>57</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>9</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" t="s">
+        <v>39</v>
+      </c>
+      <c r="F227" t="s">
+        <v>316</v>
+      </c>
+      <c r="G227" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>57</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+      <c r="E228" t="s">
+        <v>38</v>
+      </c>
+      <c r="F228" t="s">
+        <v>302</v>
+      </c>
+      <c r="G228" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>56</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229" t="s">
+        <v>348</v>
+      </c>
+      <c r="G229" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>58</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" t="s">
+        <v>36</v>
+      </c>
+      <c r="F230" t="s">
+        <v>265</v>
+      </c>
+      <c r="G230" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>56</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" t="s">
+        <v>54</v>
+      </c>
+      <c r="F231" t="s">
+        <v>351</v>
+      </c>
+      <c r="G231" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>57</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>43</v>
+      </c>
+      <c r="F232" t="s">
+        <v>256</v>
+      </c>
+      <c r="G232" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>56</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" t="s">
+        <v>54</v>
+      </c>
+      <c r="F233" t="s">
+        <v>296</v>
+      </c>
+      <c r="G233" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+      <c r="E234" t="s">
+        <v>48</v>
+      </c>
+      <c r="F234" t="s">
+        <v>353</v>
+      </c>
+      <c r="G234" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>59</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" t="s">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" t="s">
+        <v>52</v>
+      </c>
+      <c r="F235" t="s">
+        <v>324</v>
+      </c>
+      <c r="G235" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>55</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" t="s">
+        <v>52</v>
+      </c>
+      <c r="F236" t="s">
+        <v>248</v>
+      </c>
+      <c r="G236" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>59</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237" t="s">
+        <v>324</v>
+      </c>
+      <c r="G237" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" t="s">
+        <v>12</v>
+      </c>
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" t="s">
+        <v>38</v>
+      </c>
+      <c r="F238" t="s">
+        <v>291</v>
+      </c>
+      <c r="G238" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>55</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" t="s">
+        <v>40</v>
+      </c>
+      <c r="F239" t="s">
+        <v>351</v>
+      </c>
+      <c r="G239" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>59</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+      <c r="E240" t="s">
+        <v>52</v>
+      </c>
+      <c r="F240" t="s">
+        <v>354</v>
+      </c>
+      <c r="G240" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>57</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" t="s">
+        <v>49</v>
+      </c>
+      <c r="F241" t="s">
+        <v>332</v>
+      </c>
+      <c r="G241" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>57</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" t="s">
+        <v>153</v>
+      </c>
+      <c r="F242" t="s">
+        <v>304</v>
+      </c>
+      <c r="G242" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>56</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>49</v>
+      </c>
+      <c r="F243" t="s">
+        <v>355</v>
+      </c>
+      <c r="G243" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>55</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+      <c r="E244" t="s">
+        <v>40</v>
+      </c>
+      <c r="F244" t="s">
+        <v>356</v>
+      </c>
+      <c r="G244" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>59</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>41</v>
+      </c>
+      <c r="F245" t="s">
+        <v>318</v>
+      </c>
+      <c r="G245" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>59</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" t="s">
+        <v>48</v>
+      </c>
+      <c r="F246" t="s">
+        <v>357</v>
+      </c>
+      <c r="G246" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" t="s">
+        <v>154</v>
+      </c>
+      <c r="F247" t="s">
+        <v>301</v>
+      </c>
+      <c r="G247" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>12</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" t="s">
+        <v>54</v>
+      </c>
+      <c r="F248" t="s">
+        <v>315</v>
+      </c>
+      <c r="G248" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>59</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" t="s">
+        <v>358</v>
+      </c>
+      <c r="G249" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250" t="s">
+        <v>359</v>
+      </c>
+      <c r="G250" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>57</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+      <c r="E251" t="s">
+        <v>49</v>
+      </c>
+      <c r="F251" t="s">
+        <v>290</v>
+      </c>
+      <c r="G251" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>59</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" t="s">
+        <v>154</v>
+      </c>
+      <c r="F252" t="s">
+        <v>266</v>
+      </c>
+      <c r="G252" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" t="s">
+        <v>49</v>
+      </c>
+      <c r="F253" t="s">
+        <v>360</v>
+      </c>
+      <c r="G253" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>5</v>
+      </c>
+      <c r="E254" t="s">
+        <v>36</v>
+      </c>
+      <c r="F254" t="s">
+        <v>273</v>
+      </c>
+      <c r="G254" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>56</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" t="s">
+        <v>40</v>
+      </c>
+      <c r="F255" t="s">
+        <v>361</v>
+      </c>
+      <c r="G255" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>55</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>12</v>
+      </c>
+      <c r="D256" t="s">
+        <v>5</v>
+      </c>
+      <c r="E256" t="s">
+        <v>54</v>
+      </c>
+      <c r="F256" t="s">
+        <v>362</v>
+      </c>
+      <c r="G256" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>57</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" t="s">
+        <v>54</v>
+      </c>
+      <c r="F257" t="s">
+        <v>363</v>
+      </c>
+      <c r="G257" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>56</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" t="s">
+        <v>40</v>
+      </c>
+      <c r="F258" t="s">
+        <v>290</v>
+      </c>
+      <c r="G258" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>56</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" t="s">
+        <v>52</v>
+      </c>
+      <c r="F259" t="s">
+        <v>297</v>
+      </c>
+      <c r="G259" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>57</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>12</v>
+      </c>
+      <c r="D260" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" t="s">
+        <v>36</v>
+      </c>
+      <c r="F260" t="s">
+        <v>364</v>
+      </c>
+      <c r="G260" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+      <c r="C261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" t="s">
+        <v>36</v>
+      </c>
+      <c r="F261" t="s">
+        <v>354</v>
+      </c>
+      <c r="G261" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>59</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262" t="s">
+        <v>41</v>
+      </c>
+      <c r="F262" t="s">
+        <v>365</v>
+      </c>
+      <c r="G262" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>40</v>
+      </c>
+      <c r="F263" t="s">
+        <v>366</v>
+      </c>
+      <c r="G263" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>58</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" t="s">
+        <v>36</v>
+      </c>
+      <c r="F264" t="s">
+        <v>281</v>
+      </c>
+      <c r="G264" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>56</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" t="s">
+        <v>154</v>
+      </c>
+      <c r="F265" t="s">
+        <v>367</v>
+      </c>
+      <c r="G265" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>12</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
+        <v>48</v>
+      </c>
+      <c r="F266" t="s">
+        <v>368</v>
+      </c>
+      <c r="G266" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>56</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
+        <v>12</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="s">
+        <v>153</v>
+      </c>
+      <c r="F267" t="s">
+        <v>264</v>
+      </c>
+      <c r="G267" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>56</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" t="s">
+        <v>39</v>
+      </c>
+      <c r="F268" t="s">
+        <v>293</v>
+      </c>
+      <c r="G268" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>57</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" t="s">
+        <v>5</v>
+      </c>
+      <c r="E269" t="s">
+        <v>39</v>
+      </c>
+      <c r="F269" t="s">
+        <v>321</v>
+      </c>
+      <c r="G269" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>55</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+      <c r="C270" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" t="s">
+        <v>39</v>
+      </c>
+      <c r="F270" t="s">
+        <v>328</v>
+      </c>
+      <c r="G270" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>59</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" t="s">
+        <v>39</v>
+      </c>
+      <c r="F271" t="s">
+        <v>369</v>
+      </c>
+      <c r="G271" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>59</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>12</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" t="s">
+        <v>153</v>
+      </c>
+      <c r="F272" t="s">
+        <v>251</v>
+      </c>
+      <c r="G272" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>55</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" t="s">
+        <v>38</v>
+      </c>
+      <c r="F273" t="s">
+        <v>300</v>
+      </c>
+      <c r="G273" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>58</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" t="s">
+        <v>48</v>
+      </c>
+      <c r="F274" t="s">
+        <v>241</v>
+      </c>
+      <c r="G274" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>59</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" t="s">
+        <v>54</v>
+      </c>
+      <c r="F275" t="s">
+        <v>370</v>
+      </c>
+      <c r="G275" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>58</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" t="s">
+        <v>154</v>
+      </c>
+      <c r="F276" t="s">
+        <v>371</v>
+      </c>
+      <c r="G276" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>58</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" t="s">
+        <v>54</v>
+      </c>
+      <c r="F277" t="s">
+        <v>332</v>
+      </c>
+      <c r="G277" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>59</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278" t="s">
+        <v>36</v>
+      </c>
+      <c r="F278" t="s">
+        <v>361</v>
+      </c>
+      <c r="G278" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>58</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279" t="s">
+        <v>54</v>
+      </c>
+      <c r="F279" t="s">
+        <v>303</v>
+      </c>
+      <c r="G279" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>57</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" t="s">
+        <v>36</v>
+      </c>
+      <c r="F280" t="s">
+        <v>247</v>
+      </c>
+      <c r="G280" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>59</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281" t="s">
+        <v>49</v>
+      </c>
+      <c r="F281" t="s">
+        <v>265</v>
+      </c>
+      <c r="G281" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>55</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" t="s">
+        <v>41</v>
+      </c>
+      <c r="F282" t="s">
+        <v>372</v>
+      </c>
+      <c r="G282" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>57</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>38</v>
+      </c>
+      <c r="F283" t="s">
+        <v>373</v>
+      </c>
+      <c r="G283" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>58</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>10</v>
+      </c>
+      <c r="D284" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284" t="s">
+        <v>154</v>
+      </c>
+      <c r="F284" t="s">
+        <v>313</v>
+      </c>
+      <c r="G284" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>55</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285" t="s">
+        <v>38</v>
+      </c>
+      <c r="F285" t="s">
+        <v>290</v>
+      </c>
+      <c r="G285" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>56</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>10</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" t="s">
+        <v>52</v>
+      </c>
+      <c r="F286" t="s">
+        <v>374</v>
+      </c>
+      <c r="G286" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>58</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" t="s">
+        <v>49</v>
+      </c>
+      <c r="F287" t="s">
+        <v>375</v>
+      </c>
+      <c r="G287" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>55</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>12</v>
+      </c>
+      <c r="D288" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" t="s">
+        <v>39</v>
+      </c>
+      <c r="F288" t="s">
+        <v>376</v>
+      </c>
+      <c r="G288" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>57</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+      <c r="E289" t="s">
+        <v>43</v>
+      </c>
+      <c r="F289" t="s">
+        <v>268</v>
+      </c>
+      <c r="G289" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>56</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
+      </c>
+      <c r="C290" t="s">
+        <v>12</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+      <c r="E290" t="s">
+        <v>41</v>
+      </c>
+      <c r="F290" t="s">
+        <v>377</v>
+      </c>
+      <c r="G290" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>57</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" t="s">
+        <v>52</v>
+      </c>
+      <c r="F291" t="s">
+        <v>256</v>
+      </c>
+      <c r="G291" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>56</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" t="s">
+        <v>48</v>
+      </c>
+      <c r="F292" t="s">
+        <v>378</v>
+      </c>
+      <c r="G292" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>59</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>10</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" t="s">
+        <v>54</v>
+      </c>
+      <c r="F293" t="s">
+        <v>345</v>
+      </c>
+      <c r="G293" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>55</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>10</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" t="s">
+        <v>40</v>
+      </c>
+      <c r="F294" t="s">
+        <v>240</v>
+      </c>
+      <c r="G294" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>59</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>5</v>
+      </c>
+      <c r="E295" t="s">
+        <v>43</v>
+      </c>
+      <c r="F295" t="s">
+        <v>379</v>
+      </c>
+      <c r="G295" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>56</v>
+      </c>
+      <c r="B296" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>38</v>
+      </c>
+      <c r="F296" t="s">
+        <v>339</v>
+      </c>
+      <c r="G296" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>56</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" t="s">
+        <v>40</v>
+      </c>
+      <c r="F297" t="s">
+        <v>268</v>
+      </c>
+      <c r="G297" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>58</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>10</v>
+      </c>
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298" t="s">
+        <v>380</v>
+      </c>
+      <c r="G298" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>55</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299" t="s">
+        <v>12</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" t="s">
+        <v>153</v>
+      </c>
+      <c r="F299" t="s">
+        <v>365</v>
+      </c>
+      <c r="G299" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>55</v>
+      </c>
+      <c r="B300" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" t="s">
+        <v>54</v>
+      </c>
+      <c r="F300" t="s">
+        <v>265</v>
+      </c>
+      <c r="G300" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>55</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>10</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+      <c r="E301" t="s">
+        <v>54</v>
+      </c>
+      <c r="F301" t="s">
+        <v>247</v>
+      </c>
+      <c r="G301" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>57</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" t="s">
+        <v>36</v>
+      </c>
+      <c r="F302" t="s">
+        <v>381</v>
+      </c>
+      <c r="G302" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+      <c r="B303"/>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+      <c r="G303"/>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+      <c r="B304"/>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304"/>
+      <c r="G304"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+      <c r="B305"/>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305"/>
+      <c r="G305"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306"/>
+      <c r="B306"/>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306"/>
+      <c r="G306"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+      <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
+      <c r="G307"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+      <c r="B308"/>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
+      <c r="G308"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+      <c r="B309"/>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309"/>
+      <c r="G309"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+      <c r="B310"/>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+      <c r="G310"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+      <c r="B311"/>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311"/>
+      <c r="G311"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+      <c r="B312"/>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312"/>
+      <c r="G312"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+      <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313"/>
+      <c r="E313"/>
+      <c r="F313"/>
+      <c r="G313"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+      <c r="B314"/>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314"/>
+      <c r="G314"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+      <c r="B315"/>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
+      <c r="G315"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+      <c r="B316"/>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
+      <c r="G316"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+      <c r="B317"/>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+      <c r="F317"/>
+      <c r="G317"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+      <c r="B318"/>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318"/>
+      <c r="G318"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+      <c r="B319"/>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319"/>
+      <c r="G319"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+      <c r="B320"/>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
+      <c r="G320"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+      <c r="B321"/>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321"/>
+      <c r="G321"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+      <c r="B322"/>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
+      <c r="G322"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+      <c r="B323"/>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
+      <c r="G323"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+      <c r="B324"/>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324"/>
+      <c r="G324"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+      <c r="B325"/>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325"/>
+      <c r="G325"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+      <c r="B326"/>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
+      <c r="G326"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+      <c r="B327"/>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+      <c r="G327"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+      <c r="B328"/>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328"/>
+      <c r="G328"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+      <c r="B329"/>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329"/>
+      <c r="G329"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+      <c r="B330"/>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
+      <c r="G330"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+      <c r="B331"/>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331"/>
+      <c r="F331"/>
+      <c r="G331"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+      <c r="B332"/>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332"/>
+      <c r="G332"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+      <c r="B333"/>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333"/>
+      <c r="F333"/>
+      <c r="G333"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+      <c r="B334"/>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334"/>
+      <c r="G334"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+      <c r="B335"/>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335"/>
+      <c r="G335"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+      <c r="B336"/>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336"/>
+      <c r="G336"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+      <c r="B337"/>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+      <c r="F337"/>
+      <c r="G337"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+      <c r="B338"/>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338"/>
+      <c r="F338"/>
+      <c r="G338"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+      <c r="B339"/>
+      <c r="C339"/>
+      <c r="D339"/>
+      <c r="E339"/>
+      <c r="F339"/>
+      <c r="G339"/>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+      <c r="B340"/>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340"/>
+      <c r="F340"/>
+      <c r="G340"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341"/>
+      <c r="B341"/>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341"/>
+      <c r="F341"/>
+      <c r="G341"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+      <c r="B342"/>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342"/>
+      <c r="G342"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+      <c r="B343"/>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+      <c r="F343"/>
+      <c r="G343"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+      <c r="B344"/>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
+      <c r="F344"/>
+      <c r="G344"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+      <c r="B345"/>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345"/>
+      <c r="F345"/>
+      <c r="G345"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+      <c r="B346"/>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346"/>
+      <c r="F346"/>
+      <c r="G346"/>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+      <c r="B347"/>
+      <c r="C347"/>
+      <c r="D347"/>
+      <c r="E347"/>
+      <c r="F347"/>
+      <c r="G347"/>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+      <c r="B348"/>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348"/>
+      <c r="G348"/>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349"/>
+      <c r="B349"/>
+      <c r="C349"/>
+      <c r="D349"/>
+      <c r="E349"/>
+      <c r="F349"/>
+      <c r="G349"/>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350"/>
+      <c r="B350"/>
+      <c r="C350"/>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350"/>
+      <c r="G350"/>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351"/>
+      <c r="B351"/>
+      <c r="C351"/>
+      <c r="D351"/>
+      <c r="E351"/>
+      <c r="F351"/>
+      <c r="G351"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+      <c r="B352"/>
+      <c r="C352"/>
+      <c r="D352"/>
+      <c r="E352"/>
+      <c r="F352"/>
+      <c r="G352"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+      <c r="B353"/>
+      <c r="C353"/>
+      <c r="D353"/>
+      <c r="E353"/>
+      <c r="F353"/>
+      <c r="G353"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+      <c r="B354"/>
+      <c r="C354"/>
+      <c r="D354"/>
+      <c r="E354"/>
+      <c r="F354"/>
+      <c r="G354"/>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+      <c r="B355"/>
+      <c r="C355"/>
+      <c r="D355"/>
+      <c r="E355"/>
+      <c r="F355"/>
+      <c r="G355"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356"/>
+      <c r="B356"/>
+      <c r="C356"/>
+      <c r="D356"/>
+      <c r="E356"/>
+      <c r="F356"/>
+      <c r="G356"/>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357"/>
+      <c r="B357"/>
+      <c r="C357"/>
+      <c r="D357"/>
+      <c r="E357"/>
+      <c r="F357"/>
+      <c r="G357"/>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358"/>
+      <c r="B358"/>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358"/>
+      <c r="G358"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+      <c r="B359"/>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360"/>
+      <c r="B360"/>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360"/>
+      <c r="G360"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361"/>
+      <c r="B361"/>
+      <c r="C361"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361"/>
+      <c r="G361"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362"/>
+      <c r="B362"/>
+      <c r="C362"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362"/>
+      <c r="G362"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363"/>
+      <c r="B363"/>
+      <c r="C363"/>
+      <c r="D363"/>
+      <c r="E363"/>
+      <c r="F363"/>
+      <c r="G363"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364"/>
+      <c r="B364"/>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365"/>
+      <c r="B365"/>
+      <c r="C365"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365"/>
+      <c r="G365"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366"/>
+      <c r="B366"/>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366"/>
+      <c r="G366"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367"/>
+      <c r="B367"/>
+      <c r="C367"/>
+      <c r="D367"/>
+      <c r="E367"/>
+      <c r="F367"/>
+      <c r="G367"/>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368"/>
+      <c r="B368"/>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368"/>
+      <c r="G368"/>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369"/>
+      <c r="B369"/>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369"/>
+      <c r="G369"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370"/>
+      <c r="B370"/>
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370"/>
+      <c r="G370"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371"/>
+      <c r="B371"/>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371"/>
+      <c r="G371"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372"/>
+      <c r="B372"/>
+      <c r="C372"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372"/>
+      <c r="G372"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373"/>
+      <c r="B373"/>
+      <c r="C373"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373"/>
+      <c r="G373"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374"/>
+      <c r="B374"/>
+      <c r="C374"/>
+      <c r="D374"/>
+      <c r="E374"/>
+      <c r="F374"/>
+      <c r="G374"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375"/>
+      <c r="B375"/>
+      <c r="C375"/>
+      <c r="D375"/>
+      <c r="E375"/>
+      <c r="F375"/>
+      <c r="G375"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376"/>
+      <c r="B376"/>
+      <c r="C376"/>
+      <c r="D376"/>
+      <c r="E376"/>
+      <c r="F376"/>
+      <c r="G376"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+      <c r="B377"/>
+      <c r="C377"/>
+      <c r="D377"/>
+      <c r="E377"/>
+      <c r="F377"/>
+      <c r="G377"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+      <c r="B378"/>
+      <c r="C378"/>
+      <c r="D378"/>
+      <c r="E378"/>
+      <c r="F378"/>
+      <c r="G378"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+      <c r="B379"/>
+      <c r="C379"/>
+      <c r="D379"/>
+      <c r="E379"/>
+      <c r="F379"/>
+      <c r="G379"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+      <c r="B380"/>
+      <c r="C380"/>
+      <c r="D380"/>
+      <c r="E380"/>
+      <c r="F380"/>
+      <c r="G380"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381"/>
+      <c r="B381"/>
+      <c r="C381"/>
+      <c r="D381"/>
+      <c r="E381"/>
+      <c r="F381"/>
+      <c r="G381"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+      <c r="B382"/>
+      <c r="C382"/>
+      <c r="D382"/>
+      <c r="E382"/>
+      <c r="F382"/>
+      <c r="G382"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+      <c r="B383"/>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383"/>
+      <c r="G383"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+      <c r="B384"/>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384"/>
+      <c r="F384"/>
+      <c r="G384"/>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+      <c r="B385"/>
+      <c r="C385"/>
+      <c r="D385"/>
+      <c r="E385"/>
+      <c r="F385"/>
+      <c r="G385"/>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386"/>
+      <c r="B386"/>
+      <c r="C386"/>
+      <c r="D386"/>
+      <c r="E386"/>
+      <c r="F386"/>
+      <c r="G386"/>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+      <c r="B387"/>
+      <c r="C387"/>
+      <c r="D387"/>
+      <c r="E387"/>
+      <c r="F387"/>
+      <c r="G387"/>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+      <c r="B388"/>
+      <c r="C388"/>
+      <c r="D388"/>
+      <c r="E388"/>
+      <c r="F388"/>
+      <c r="G388"/>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+      <c r="B389"/>
+      <c r="C389"/>
+      <c r="D389"/>
+      <c r="E389"/>
+      <c r="F389"/>
+      <c r="G389"/>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+      <c r="B390"/>
+      <c r="C390"/>
+      <c r="D390"/>
+      <c r="E390"/>
+      <c r="F390"/>
+      <c r="G390"/>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391"/>
+      <c r="B391"/>
+      <c r="C391"/>
+      <c r="D391"/>
+      <c r="E391"/>
+      <c r="F391"/>
+      <c r="G391"/>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392"/>
+      <c r="B392"/>
+      <c r="C392"/>
+      <c r="D392"/>
+      <c r="E392"/>
+      <c r="F392"/>
+      <c r="G392"/>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393"/>
+      <c r="B393"/>
+      <c r="C393"/>
+      <c r="D393"/>
+      <c r="E393"/>
+      <c r="F393"/>
+      <c r="G393"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394"/>
+      <c r="B394"/>
+      <c r="C394"/>
+      <c r="D394"/>
+      <c r="E394"/>
+      <c r="F394"/>
+      <c r="G394"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395"/>
+      <c r="B395"/>
+      <c r="C395"/>
+      <c r="D395"/>
+      <c r="E395"/>
+      <c r="F395"/>
+      <c r="G395"/>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396"/>
+      <c r="B396"/>
+      <c r="C396"/>
+      <c r="D396"/>
+      <c r="E396"/>
+      <c r="F396"/>
+      <c r="G396"/>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397"/>
+      <c r="B397"/>
+      <c r="C397"/>
+      <c r="D397"/>
+      <c r="E397"/>
+      <c r="F397"/>
+      <c r="G397"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398"/>
+      <c r="B398"/>
+      <c r="C398"/>
+      <c r="D398"/>
+      <c r="E398"/>
+      <c r="F398"/>
+      <c r="G398"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399"/>
+      <c r="B399"/>
+      <c r="C399"/>
+      <c r="D399"/>
+      <c r="E399"/>
+      <c r="F399"/>
+      <c r="G399"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400"/>
+      <c r="B400"/>
+      <c r="C400"/>
+      <c r="D400"/>
+      <c r="E400"/>
+      <c r="F400"/>
+      <c r="G400"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401"/>
+      <c r="B401"/>
+      <c r="C401"/>
+      <c r="D401"/>
+      <c r="E401"/>
+      <c r="F401"/>
+      <c r="G401"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402"/>
+      <c r="B402"/>
+      <c r="C402"/>
+      <c r="D402"/>
+      <c r="E402"/>
+      <c r="F402"/>
+      <c r="G402"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403"/>
+      <c r="B403"/>
+      <c r="C403"/>
+      <c r="D403"/>
+      <c r="E403"/>
+      <c r="F403"/>
+      <c r="G403"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404"/>
+      <c r="B404"/>
+      <c r="C404"/>
+      <c r="D404"/>
+      <c r="E404"/>
+      <c r="F404"/>
+      <c r="G404"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405"/>
+      <c r="B405"/>
+      <c r="C405"/>
+      <c r="D405"/>
+      <c r="E405"/>
+      <c r="F405"/>
+      <c r="G405"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406"/>
+      <c r="B406"/>
+      <c r="C406"/>
+      <c r="D406"/>
+      <c r="E406"/>
+      <c r="F406"/>
+      <c r="G406"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407"/>
+      <c r="B407"/>
+      <c r="C407"/>
+      <c r="D407"/>
+      <c r="E407"/>
+      <c r="F407"/>
+      <c r="G407"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408"/>
+      <c r="B408"/>
+      <c r="C408"/>
+      <c r="D408"/>
+      <c r="E408"/>
+      <c r="F408"/>
+      <c r="G408"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409"/>
+      <c r="B409"/>
+      <c r="C409"/>
+      <c r="D409"/>
+      <c r="E409"/>
+      <c r="F409"/>
+      <c r="G409"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410"/>
+      <c r="B410"/>
+      <c r="C410"/>
+      <c r="D410"/>
+      <c r="E410"/>
+      <c r="F410"/>
+      <c r="G410"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411"/>
+      <c r="B411"/>
+      <c r="C411"/>
+      <c r="D411"/>
+      <c r="E411"/>
+      <c r="F411"/>
+      <c r="G411"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412"/>
+      <c r="B412"/>
+      <c r="C412"/>
+      <c r="D412"/>
+      <c r="E412"/>
+      <c r="F412"/>
+      <c r="G412"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413"/>
+      <c r="B413"/>
+      <c r="C413"/>
+      <c r="D413"/>
+      <c r="E413"/>
+      <c r="F413"/>
+      <c r="G413"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414"/>
+      <c r="B414"/>
+      <c r="C414"/>
+      <c r="D414"/>
+      <c r="E414"/>
+      <c r="F414"/>
+      <c r="G414"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415"/>
+      <c r="B415"/>
+      <c r="C415"/>
+      <c r="D415"/>
+      <c r="E415"/>
+      <c r="F415"/>
+      <c r="G415"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416"/>
+      <c r="B416"/>
+      <c r="C416"/>
+      <c r="D416"/>
+      <c r="E416"/>
+      <c r="F416"/>
+      <c r="G416"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417"/>
+      <c r="B417"/>
+      <c r="C417"/>
+      <c r="D417"/>
+      <c r="E417"/>
+      <c r="F417"/>
+      <c r="G417"/>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418"/>
+      <c r="B418"/>
+      <c r="C418"/>
+      <c r="D418"/>
+      <c r="E418"/>
+      <c r="F418"/>
+      <c r="G418"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419"/>
+      <c r="B419"/>
+      <c r="C419"/>
+      <c r="D419"/>
+      <c r="E419"/>
+      <c r="F419"/>
+      <c r="G419"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420"/>
+      <c r="B420"/>
+      <c r="C420"/>
+      <c r="D420"/>
+      <c r="E420"/>
+      <c r="F420"/>
+      <c r="G420"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421"/>
+      <c r="B421"/>
+      <c r="C421"/>
+      <c r="D421"/>
+      <c r="E421"/>
+      <c r="F421"/>
+      <c r="G421"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422"/>
+      <c r="B422"/>
+      <c r="C422"/>
+      <c r="D422"/>
+      <c r="E422"/>
+      <c r="F422"/>
+      <c r="G422"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423"/>
+      <c r="B423"/>
+      <c r="C423"/>
+      <c r="D423"/>
+      <c r="E423"/>
+      <c r="F423"/>
+      <c r="G423"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424"/>
+      <c r="B424"/>
+      <c r="C424"/>
+      <c r="D424"/>
+      <c r="E424"/>
+      <c r="F424"/>
+      <c r="G424"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425"/>
+      <c r="B425"/>
+      <c r="C425"/>
+      <c r="D425"/>
+      <c r="E425"/>
+      <c r="F425"/>
+      <c r="G425"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426"/>
+      <c r="B426"/>
+      <c r="C426"/>
+      <c r="D426"/>
+      <c r="E426"/>
+      <c r="F426"/>
+      <c r="G426"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427"/>
+      <c r="B427"/>
+      <c r="C427"/>
+      <c r="D427"/>
+      <c r="E427"/>
+      <c r="F427"/>
+      <c r="G427"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428"/>
+      <c r="B428"/>
+      <c r="C428"/>
+      <c r="D428"/>
+      <c r="E428"/>
+      <c r="F428"/>
+      <c r="G428"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429"/>
+      <c r="B429"/>
+      <c r="C429"/>
+      <c r="D429"/>
+      <c r="E429"/>
+      <c r="F429"/>
+      <c r="G429"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430"/>
+      <c r="B430"/>
+      <c r="C430"/>
+      <c r="D430"/>
+      <c r="E430"/>
+      <c r="F430"/>
+      <c r="G430"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431"/>
+      <c r="B431"/>
+      <c r="C431"/>
+      <c r="D431"/>
+      <c r="E431"/>
+      <c r="F431"/>
+      <c r="G431"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432"/>
+      <c r="B432"/>
+      <c r="C432"/>
+      <c r="D432"/>
+      <c r="E432"/>
+      <c r="F432"/>
+      <c r="G432"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433"/>
+      <c r="B433"/>
+      <c r="C433"/>
+      <c r="D433"/>
+      <c r="E433"/>
+      <c r="F433"/>
+      <c r="G433"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434"/>
+      <c r="B434"/>
+      <c r="C434"/>
+      <c r="D434"/>
+      <c r="E434"/>
+      <c r="F434"/>
+      <c r="G434"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435"/>
+      <c r="B435"/>
+      <c r="C435"/>
+      <c r="D435"/>
+      <c r="E435"/>
+      <c r="F435"/>
+      <c r="G435"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436"/>
+      <c r="B436"/>
+      <c r="C436"/>
+      <c r="D436"/>
+      <c r="E436"/>
+      <c r="F436"/>
+      <c r="G436"/>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437"/>
+      <c r="B437"/>
+      <c r="C437"/>
+      <c r="D437"/>
+      <c r="E437"/>
+      <c r="F437"/>
+      <c r="G437"/>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438"/>
+      <c r="B438"/>
+      <c r="C438"/>
+      <c r="D438"/>
+      <c r="E438"/>
+      <c r="F438"/>
+      <c r="G438"/>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439"/>
+      <c r="B439"/>
+      <c r="C439"/>
+      <c r="D439"/>
+      <c r="E439"/>
+      <c r="F439"/>
+      <c r="G439"/>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440"/>
+      <c r="B440"/>
+      <c r="C440"/>
+      <c r="D440"/>
+      <c r="E440"/>
+      <c r="F440"/>
+      <c r="G440"/>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441"/>
+      <c r="B441"/>
+      <c r="C441"/>
+      <c r="D441"/>
+      <c r="E441"/>
+      <c r="F441"/>
+      <c r="G441"/>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442"/>
+      <c r="B442"/>
+      <c r="C442"/>
+      <c r="D442"/>
+      <c r="E442"/>
+      <c r="F442"/>
+      <c r="G442"/>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443"/>
+      <c r="B443"/>
+      <c r="C443"/>
+      <c r="D443"/>
+      <c r="E443"/>
+      <c r="F443"/>
+      <c r="G443"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444"/>
+      <c r="B444"/>
+      <c r="C444"/>
+      <c r="D444"/>
+      <c r="E444"/>
+      <c r="F444"/>
+      <c r="G444"/>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445"/>
+      <c r="B445"/>
+      <c r="C445"/>
+      <c r="D445"/>
+      <c r="E445"/>
+      <c r="F445"/>
+      <c r="G445"/>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446"/>
+      <c r="B446"/>
+      <c r="C446"/>
+      <c r="D446"/>
+      <c r="E446"/>
+      <c r="F446"/>
+      <c r="G446"/>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447"/>
+      <c r="B447"/>
+      <c r="C447"/>
+      <c r="D447"/>
+      <c r="E447"/>
+      <c r="F447"/>
+      <c r="G447"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448"/>
+      <c r="B448"/>
+      <c r="C448"/>
+      <c r="D448"/>
+      <c r="E448"/>
+      <c r="F448"/>
+      <c r="G448"/>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449"/>
+      <c r="B449"/>
+      <c r="C449"/>
+      <c r="D449"/>
+      <c r="E449"/>
+      <c r="F449"/>
+      <c r="G449"/>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450"/>
+      <c r="B450"/>
+      <c r="C450"/>
+      <c r="D450"/>
+      <c r="E450"/>
+      <c r="F450"/>
+      <c r="G450"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451"/>
+      <c r="B451"/>
+      <c r="C451"/>
+      <c r="D451"/>
+      <c r="E451"/>
+      <c r="F451"/>
+      <c r="G451"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452"/>
+      <c r="B452"/>
+      <c r="C452"/>
+      <c r="D452"/>
+      <c r="E452"/>
+      <c r="F452"/>
+      <c r="G452"/>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453"/>
+      <c r="B453"/>
+      <c r="C453"/>
+      <c r="D453"/>
+      <c r="E453"/>
+      <c r="F453"/>
+      <c r="G453"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454"/>
+      <c r="B454"/>
+      <c r="C454"/>
+      <c r="D454"/>
+      <c r="E454"/>
+      <c r="F454"/>
+      <c r="G454"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455"/>
+      <c r="B455"/>
+      <c r="C455"/>
+      <c r="D455"/>
+      <c r="E455"/>
+      <c r="F455"/>
+      <c r="G455"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456"/>
+      <c r="B456"/>
+      <c r="C456"/>
+      <c r="D456"/>
+      <c r="E456"/>
+      <c r="F456"/>
+      <c r="G456"/>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457"/>
+      <c r="B457"/>
+      <c r="C457"/>
+      <c r="D457"/>
+      <c r="E457"/>
+      <c r="F457"/>
+      <c r="G457"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458"/>
+      <c r="B458"/>
+      <c r="C458"/>
+      <c r="D458"/>
+      <c r="E458"/>
+      <c r="F458"/>
+      <c r="G458"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459"/>
+      <c r="B459"/>
+      <c r="C459"/>
+      <c r="D459"/>
+      <c r="E459"/>
+      <c r="F459"/>
+      <c r="G459"/>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460"/>
+      <c r="B460"/>
+      <c r="C460"/>
+      <c r="D460"/>
+      <c r="E460"/>
+      <c r="F460"/>
+      <c r="G460"/>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461"/>
+      <c r="B461"/>
+      <c r="C461"/>
+      <c r="D461"/>
+      <c r="E461"/>
+      <c r="F461"/>
+      <c r="G461"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462"/>
+      <c r="B462"/>
+      <c r="C462"/>
+      <c r="D462"/>
+      <c r="E462"/>
+      <c r="F462"/>
+      <c r="G462"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463"/>
+      <c r="B463"/>
+      <c r="C463"/>
+      <c r="D463"/>
+      <c r="E463"/>
+      <c r="F463"/>
+      <c r="G463"/>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464"/>
+      <c r="B464"/>
+      <c r="C464"/>
+      <c r="D464"/>
+      <c r="E464"/>
+      <c r="F464"/>
+      <c r="G464"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465"/>
+      <c r="B465"/>
+      <c r="C465"/>
+      <c r="D465"/>
+      <c r="E465"/>
+      <c r="F465"/>
+      <c r="G465"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466"/>
+      <c r="B466"/>
+      <c r="C466"/>
+      <c r="D466"/>
+      <c r="E466"/>
+      <c r="F466"/>
+      <c r="G466"/>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467"/>
+      <c r="B467"/>
+      <c r="C467"/>
+      <c r="D467"/>
+      <c r="E467"/>
+      <c r="F467"/>
+      <c r="G467"/>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468"/>
+      <c r="B468"/>
+      <c r="C468"/>
+      <c r="D468"/>
+      <c r="E468"/>
+      <c r="F468"/>
+      <c r="G468"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469"/>
+      <c r="B469"/>
+      <c r="C469"/>
+      <c r="D469"/>
+      <c r="E469"/>
+      <c r="F469"/>
+      <c r="G469"/>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470"/>
+      <c r="B470"/>
+      <c r="C470"/>
+      <c r="D470"/>
+      <c r="E470"/>
+      <c r="F470"/>
+      <c r="G470"/>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471"/>
+      <c r="B471"/>
+      <c r="C471"/>
+      <c r="D471"/>
+      <c r="E471"/>
+      <c r="F471"/>
+      <c r="G471"/>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472"/>
+      <c r="B472"/>
+      <c r="C472"/>
+      <c r="D472"/>
+      <c r="E472"/>
+      <c r="F472"/>
+      <c r="G472"/>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473"/>
+      <c r="B473"/>
+      <c r="C473"/>
+      <c r="D473"/>
+      <c r="E473"/>
+      <c r="F473"/>
+      <c r="G473"/>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474"/>
+      <c r="B474"/>
+      <c r="C474"/>
+      <c r="D474"/>
+      <c r="E474"/>
+      <c r="F474"/>
+      <c r="G474"/>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475"/>
+      <c r="B475"/>
+      <c r="C475"/>
+      <c r="D475"/>
+      <c r="E475"/>
+      <c r="F475"/>
+      <c r="G475"/>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476"/>
+      <c r="B476"/>
+      <c r="C476"/>
+      <c r="D476"/>
+      <c r="E476"/>
+      <c r="F476"/>
+      <c r="G476"/>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477"/>
+      <c r="B477"/>
+      <c r="C477"/>
+      <c r="D477"/>
+      <c r="E477"/>
+      <c r="F477"/>
+      <c r="G477"/>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478"/>
+      <c r="B478"/>
+      <c r="C478"/>
+      <c r="D478"/>
+      <c r="E478"/>
+      <c r="F478"/>
+      <c r="G478"/>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479"/>
+      <c r="B479"/>
+      <c r="C479"/>
+      <c r="D479"/>
+      <c r="E479"/>
+      <c r="F479"/>
+      <c r="G479"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480"/>
+      <c r="B480"/>
+      <c r="C480"/>
+      <c r="D480"/>
+      <c r="E480"/>
+      <c r="F480"/>
+      <c r="G480"/>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481"/>
+      <c r="B481"/>
+      <c r="C481"/>
+      <c r="D481"/>
+      <c r="E481"/>
+      <c r="F481"/>
+      <c r="G481"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A482"/>
+      <c r="B482"/>
+      <c r="C482"/>
+      <c r="D482"/>
+      <c r="E482"/>
+      <c r="F482"/>
+      <c r="G482"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A483"/>
+      <c r="B483"/>
+      <c r="C483"/>
+      <c r="D483"/>
+      <c r="E483"/>
+      <c r="F483"/>
+      <c r="G483"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484"/>
+      <c r="B484"/>
+      <c r="C484"/>
+      <c r="D484"/>
+      <c r="E484"/>
+      <c r="F484"/>
+      <c r="G484"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485"/>
+      <c r="B485"/>
+      <c r="C485"/>
+      <c r="D485"/>
+      <c r="E485"/>
+      <c r="F485"/>
+      <c r="G485"/>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486"/>
+      <c r="B486"/>
+      <c r="C486"/>
+      <c r="D486"/>
+      <c r="E486"/>
+      <c r="F486"/>
+      <c r="G486"/>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487"/>
+      <c r="B487"/>
+      <c r="C487"/>
+      <c r="D487"/>
+      <c r="E487"/>
+      <c r="F487"/>
+      <c r="G487"/>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488"/>
+      <c r="B488"/>
+      <c r="C488"/>
+      <c r="D488"/>
+      <c r="E488"/>
+      <c r="F488"/>
+      <c r="G488"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489"/>
+      <c r="B489"/>
+      <c r="C489"/>
+      <c r="D489"/>
+      <c r="E489"/>
+      <c r="F489"/>
+      <c r="G489"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A490"/>
+      <c r="B490"/>
+      <c r="C490"/>
+      <c r="D490"/>
+      <c r="E490"/>
+      <c r="F490"/>
+      <c r="G490"/>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A491"/>
+      <c r="B491"/>
+      <c r="C491"/>
+      <c r="D491"/>
+      <c r="E491"/>
+      <c r="F491"/>
+      <c r="G491"/>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A492"/>
+      <c r="B492"/>
+      <c r="C492"/>
+      <c r="D492"/>
+      <c r="E492"/>
+      <c r="F492"/>
+      <c r="G492"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A493"/>
+      <c r="B493"/>
+      <c r="C493"/>
+      <c r="D493"/>
+      <c r="E493"/>
+      <c r="F493"/>
+      <c r="G493"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A494"/>
+      <c r="B494"/>
+      <c r="C494"/>
+      <c r="D494"/>
+      <c r="E494"/>
+      <c r="F494"/>
+      <c r="G494"/>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A495"/>
+      <c r="B495"/>
+      <c r="C495"/>
+      <c r="D495"/>
+      <c r="E495"/>
+      <c r="F495"/>
+      <c r="G495"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A496"/>
+      <c r="B496"/>
+      <c r="C496"/>
+      <c r="D496"/>
+      <c r="E496"/>
+      <c r="F496"/>
+      <c r="G496"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497"/>
+      <c r="B497"/>
+      <c r="C497"/>
+      <c r="D497"/>
+      <c r="E497"/>
+      <c r="F497"/>
+      <c r="G497"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498"/>
+      <c r="B498"/>
+      <c r="C498"/>
+      <c r="D498"/>
+      <c r="E498"/>
+      <c r="F498"/>
+      <c r="G498"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499"/>
+      <c r="B499"/>
+      <c r="C499"/>
+      <c r="D499"/>
+      <c r="E499"/>
+      <c r="F499"/>
+      <c r="G499"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500"/>
+      <c r="B500"/>
+      <c r="C500"/>
+      <c r="D500"/>
+      <c r="E500"/>
+      <c r="F500"/>
+      <c r="G500"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501"/>
+      <c r="B501"/>
+      <c r="C501"/>
+      <c r="D501"/>
+      <c r="E501"/>
+      <c r="F501"/>
+      <c r="G501"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
